--- a/тблСИ.xlsx
+++ b/тблСИ.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9462" uniqueCount="3412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9462" uniqueCount="3413">
   <si>
     <t>Код</t>
   </si>
@@ -10238,9 +10238,6 @@
     <t>ПО "Казприборремонт", Казахстан, г.Алма-Ата</t>
   </si>
   <si>
-    <t>4-76</t>
-  </si>
-  <si>
     <t>12.2701-0001</t>
   </si>
   <si>
@@ -10287,6 +10284,12 @@
   </si>
   <si>
     <t>5494.76.2Р.00164732, 9291.91.4Р.00168740, 7422.87.4Р.00276163, 17726.98.4Р.00148683</t>
+  </si>
+  <si>
+    <t>5494-76</t>
+  </si>
+  <si>
+    <t>7422-79</t>
   </si>
 </sst>
 </file>
@@ -10669,8 +10672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BB7" sqref="BB7"/>
+    <sheetView tabSelected="1" topLeftCell="AX64" workbookViewId="0">
+      <selection activeCell="K82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10889,13 +10892,13 @@
         <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="BI1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="BJ1" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -10996,7 +10999,7 @@
         <v>77</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>3395</v>
+        <v>3411</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>72</v>
@@ -11008,7 +11011,7 @@
         <v>79</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="AR2" s="3">
         <v>43026</v>
@@ -11041,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="BC2" t="s">
         <v>84</v>
@@ -11053,16 +11056,16 @@
         <v>86</v>
       </c>
       <c r="BH2" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="BI2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="BK2" s="9" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
@@ -11163,7 +11166,7 @@
         <v>77</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>100</v>
+        <v>3412</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>72</v>
@@ -11217,10 +11220,10 @@
         <v>109</v>
       </c>
       <c r="BH3" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="BI3" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
@@ -11318,7 +11321,7 @@
         <v>12</v>
       </c>
       <c r="BI4" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
@@ -11467,7 +11470,7 @@
         <v>109</v>
       </c>
       <c r="BH5" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -12462,7 +12465,7 @@
         <v>12</v>
       </c>
       <c r="BI12" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
@@ -12617,7 +12620,7 @@
         <v>12</v>
       </c>
       <c r="BI13" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
@@ -18459,7 +18462,7 @@
         <v>72</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="U54" t="s">
         <v>98</v>
